--- a/public/TemplateImport/template_import_status.xlsx
+++ b/public/TemplateImport/template_import_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8767B8A9-5B8F-4446-A3BC-184D2D2B9E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CC3F6B-B742-470B-9D1B-0BA147B79C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ABC</t>
   </si>
@@ -56,29 +56,20 @@
     <t>Mã màu sắc</t>
   </si>
   <si>
-    <t xml:space="preserve"> StatusId</t>
-  </si>
-  <si>
-    <t>StatusName</t>
-  </si>
-  <si>
-    <t>Status type</t>
-  </si>
-  <si>
     <t>Tiến độ nhóm đề tài khóa luận</t>
   </si>
   <si>
-    <t xml:space="preserve">#Color </t>
-  </si>
-  <si>
     <t>#FFFFF</t>
+  </si>
+  <si>
+    <t>TRẠNG THÁI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +93,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,11 +133,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +155,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,12 +497,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
@@ -499,31 +510,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -534,15 +539,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C4:C1048576" xr:uid="{14F152DB-0AF1-4B2A-BEE3-E31408E779EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576 C2" xr:uid="{14F152DB-0AF1-4B2A-BEE3-E31408E779EB}">
       <formula1>"Tiến độ đề tài NCKH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{452D1C13-380E-4688-8D18-7EAB1CAEFC3A}">
